--- a/biology/Zoologie/Ctenizidae/Ctenizidae.xlsx
+++ b/biology/Zoologie/Ctenizidae/Ctenizidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ctenizidae sont une famille d'araignées mygalomorphes[1]. Elles sont surnommées mygales fouisseuses noires.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ctenizidae sont une famille d'araignées mygalomorphes. Elles sont surnommées mygales fouisseuses noires.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en France, en Italie, en Grèce et en Turquie.
 </t>
@@ -542,9 +556,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces araignées sont terricoles et de mœurs nocturnes. Ce sont des mygales massives, puissantes, potentiellement capables de morsures profondes et d'importantes injections de venin. Cependant, leur mode de vie terricole et leur défaut d'agressivité quand on les découvre, au cours de travaux de terrassement par exemple, font qu'elles ne sont impliquées dans aucun cas connu d'aranéisme. La taille est moyenne à forte, parfois supérieure à 25 mm., à chélicères puissantes et pattes courtes et robustes. Ces araignées sont dépourvues de lames maxillaires.
 Le céphalothorax est uni, glabre et brillant. Une profonde fossette dorsale en forme de croissant de lune aux pointes dirigées vers l'avant (procurvée) le marque. Le dos du céphalothorax porte dans sa partie arrière une profonde fossette transverse.
@@ -611,12 +629,14 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 23.0, 30/03/2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 23.0, 30/03/2022) :
 Cteniza Latreille, 1829
 Cyrtocarenum Ausserer, 1871
-Selon World Spider Catalog (version 20.5, 2020)[2] :
+Selon World Spider Catalog (version 20.5, 2020) :
 † Baltocteniza Eskov &amp; Zonstein, 2000
 † Electrocteniza Eskov &amp; Zonstein, 2000</t>
         </is>
@@ -646,11 +666,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Thorell en 1887.
-Cette famille rassemble cinq espèces dans deux genres actuels[1].
-Elle a été démembrée entre Ctenizidae proprement dit et Halonoproctidae par Godwin, Opatova, Garrison, Hamilton et Bond en 2018[4], puis les Stasimopidae en sont exclus par Opatova, Hamilton, Hedin, Montes de Oca, Král et Bond en 2020[5].
+Cette famille rassemble cinq espèces dans deux genres actuels.
+Elle a été démembrée entre Ctenizidae proprement dit et Halonoproctidae par Godwin, Opatova, Garrison, Hamilton et Bond en 2018, puis les Stasimopidae en sont exclus par Opatova, Hamilton, Hedin, Montes de Oca, Král et Bond en 2020.
 </t>
         </is>
       </c>
@@ -679,7 +701,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Thorell, 1887 : « Viaggio di L. Fea in Birmania e regioni vicine. II. Primo saggio sui ragni birmani. » Annali del Museo civico di storia naturale di Genova, vol. 25, p. 5-417 (texte intégral).</t>
         </is>
